--- a/見積工数.xlsx
+++ b/見積工数.xlsx
@@ -15,6 +15,7 @@
     <sheet name="見積工数" sheetId="2" r:id="rId1"/>
     <sheet name="詳細見積" sheetId="1" r:id="rId2"/>
     <sheet name="品質評価" sheetId="3" r:id="rId3"/>
+    <sheet name="制約事項" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">詳細見積!$A$2:$F$122</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
   <si>
     <t>①．</t>
     <phoneticPr fontId="4"/>
@@ -970,6 +971,225 @@
     <t>工程</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>400～500</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20～30</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>100～200</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10～15</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１．開発工程</t>
+    <rPh sb="2" eb="4">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エンドユーザのWinPC(32Bite）早めに入手して検証/対策する。手遅れすると開発工数倍増える可能性ある。</t>
+    <rPh sb="20" eb="21">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テオク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WinPC/MacPC（64Bite）で開発ベースと見積ですが、WinPC(32Bite）も対応すると、二つバージョン開発の可能性もある</t>
+    <rPh sb="20" eb="22">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MacPCは10月中旬から入手する。</t>
+    <rPh sb="8" eb="9">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>２．テスト工程</t>
+    <rPh sb="5" eb="7">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20～40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>50～75</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ケース密度　8％～10%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ケース密度　2％～4%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不具合密度：0.4%～0.8%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不具合密度：1.0%～1.5％</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミツド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ｓ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　　　①</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お互い待ち時間を減らすように。</t>
+    <rPh sb="1" eb="2">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ソース連携の部分、お互い先に着手ように。</t>
+    <rPh sb="3" eb="5">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>発生の場合、別途の仕事調整。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1077,7 +1297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1571,14 +1791,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1591,7 +1829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1644,16 +1882,157 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,175 +2044,46 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2128,284 +2378,284 @@
   <cols>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="25">
         <v>16</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="67">
         <f>SUM(D3:D11)</f>
         <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40">
-        <v>8</v>
-      </c>
-      <c r="E4" s="65"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="26">
+        <v>8</v>
+      </c>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="40">
+      <c r="C5" s="62"/>
+      <c r="D5" s="26">
         <v>35</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="51"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="40">
+      <c r="C6" s="62"/>
+      <c r="D6" s="26">
         <v>32</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="51"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="40">
+      <c r="C7" s="62"/>
+      <c r="D7" s="26">
         <v>26</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="40">
+      <c r="C8" s="62"/>
+      <c r="D8" s="26">
         <v>16</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="40">
+      <c r="C9" s="62"/>
+      <c r="D9" s="26">
         <v>72</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="51"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="40">
+      <c r="C10" s="62"/>
+      <c r="D10" s="26">
         <v>66</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="66"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41">
+      <c r="C11" s="63"/>
+      <c r="D11" s="27">
         <v>48</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="25">
         <v>56</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="67">
         <f>SUM(D12:D16)</f>
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="40">
+      <c r="C13" s="62"/>
+      <c r="D13" s="26">
         <v>14</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="26">
         <v>36</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="40">
+      <c r="C15" s="62"/>
+      <c r="D15" s="26">
         <v>36</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="66"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="41">
+      <c r="C16" s="63"/>
+      <c r="D16" s="27">
         <v>36</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="51" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="28">
         <v>62</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="67">
         <f>SUM(D17:D21)</f>
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="51"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="40">
+      <c r="C18" s="62"/>
+      <c r="D18" s="26">
         <v>12</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="51"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="26">
         <v>28</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="51"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="40">
+      <c r="C20" s="62"/>
+      <c r="D20" s="26">
         <v>28</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70">
+      <c r="C21" s="66"/>
+      <c r="D21" s="53">
         <v>28</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="23" spans="1:5">
       <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="22">
         <f>SUM(D3:D22)</f>
         <v>655</v>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="22" t="str">
         <f>INT(SUM(E3:E22)/160) &amp; "人月"</f>
         <v>4人月</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2433,27 +2683,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" thickBot="1"/>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2465,15 +2715,15 @@
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A4" s="49"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -2481,13 +2731,13 @@
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="56">
+      <c r="E4" s="70"/>
+      <c r="F4" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
         <v>3</v>
@@ -2495,13 +2745,13 @@
       <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="57">
+      <c r="E5" s="70"/>
+      <c r="F5" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="13" t="s">
         <v>51</v>
       </c>
@@ -2511,13 +2761,13 @@
       <c r="D6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="58">
+      <c r="E6" s="70"/>
+      <c r="F6" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="49"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>1</v>
@@ -2525,13 +2775,13 @@
       <c r="D7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="57">
+      <c r="E7" s="70"/>
+      <c r="F7" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -2541,13 +2791,13 @@
       <c r="D8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="58">
+      <c r="E8" s="70"/>
+      <c r="F8" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>1</v>
@@ -2555,13 +2805,13 @@
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="56">
+      <c r="E9" s="70"/>
+      <c r="F9" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A10" s="49"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -2569,13 +2819,13 @@
       <c r="D10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="56">
+      <c r="E10" s="70"/>
+      <c r="F10" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A11" s="49"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -2583,13 +2833,13 @@
       <c r="D11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="56">
+      <c r="E11" s="70"/>
+      <c r="F11" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A12" s="49"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -2597,13 +2847,13 @@
       <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="56">
+      <c r="E12" s="70"/>
+      <c r="F12" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A13" s="49"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="12"/>
       <c r="C13" s="18" t="s">
         <v>6</v>
@@ -2611,13 +2861,13 @@
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="57">
+      <c r="E13" s="70"/>
+      <c r="F13" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A14" s="49"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
@@ -2627,13 +2877,13 @@
       <c r="D14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="58">
+      <c r="E14" s="70"/>
+      <c r="F14" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -2641,13 +2891,13 @@
       <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="56">
+      <c r="E15" s="70"/>
+      <c r="F15" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A16" s="49"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="11"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -2655,13 +2905,13 @@
       <c r="D16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="56">
+      <c r="E16" s="70"/>
+      <c r="F16" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="12"/>
       <c r="C17" s="15" t="s">
         <v>4</v>
@@ -2669,13 +2919,13 @@
       <c r="D17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="57">
+      <c r="E17" s="70"/>
+      <c r="F17" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
@@ -2685,13 +2935,13 @@
       <c r="D18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="58">
+      <c r="E18" s="70"/>
+      <c r="F18" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -2699,13 +2949,13 @@
       <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="56">
+      <c r="E19" s="70"/>
+      <c r="F19" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -2713,13 +2963,13 @@
       <c r="D20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="56">
+      <c r="E20" s="70"/>
+      <c r="F20" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A21" s="49"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15" t="s">
         <v>4</v>
@@ -2727,13 +2977,13 @@
       <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="57">
+      <c r="E21" s="70"/>
+      <c r="F21" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="49"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2743,13 +2993,13 @@
       <c r="D22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="58">
+      <c r="E22" s="70"/>
+      <c r="F22" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="12"/>
       <c r="C23" s="15" t="s">
         <v>14</v>
@@ -2757,13 +3007,13 @@
       <c r="D23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="57">
+      <c r="E23" s="70"/>
+      <c r="F23" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A24" s="49"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2773,13 +3023,13 @@
       <c r="D24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="58">
+      <c r="E24" s="70"/>
+      <c r="F24" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="49"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="11"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -2787,13 +3037,13 @@
       <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="56">
+      <c r="E25" s="70"/>
+      <c r="F25" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="11"/>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -2801,13 +3051,13 @@
       <c r="D26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="56">
+      <c r="E26" s="70"/>
+      <c r="F26" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A27" s="49"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="11"/>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -2815,13 +3065,13 @@
       <c r="D27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="56">
+      <c r="E27" s="70"/>
+      <c r="F27" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -2829,13 +3079,13 @@
       <c r="D28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="56">
+      <c r="E28" s="70"/>
+      <c r="F28" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="49"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
         <v>22</v>
@@ -2843,13 +3093,13 @@
       <c r="D29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="57">
+      <c r="E29" s="70"/>
+      <c r="F29" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="13" t="s">
         <v>24</v>
       </c>
@@ -2859,13 +3109,13 @@
       <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="58">
+      <c r="E30" s="70"/>
+      <c r="F30" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A31" s="49"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="11"/>
       <c r="C31" s="6" t="s">
         <v>1</v>
@@ -2873,13 +3123,13 @@
       <c r="D31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="56">
+      <c r="E31" s="70"/>
+      <c r="F31" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="49"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="11"/>
       <c r="C32" s="4" t="s">
         <v>3</v>
@@ -2887,13 +3137,13 @@
       <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="56">
+      <c r="E32" s="70"/>
+      <c r="F32" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="49"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="11"/>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -2901,13 +3151,13 @@
       <c r="D33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="56">
+      <c r="E33" s="70"/>
+      <c r="F33" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7" t="s">
         <v>34</v>
@@ -2915,13 +3165,13 @@
       <c r="D34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="56">
+      <c r="E34" s="70"/>
+      <c r="F34" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="49"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="11"/>
       <c r="C35" s="7" t="s">
         <v>6</v>
@@ -2929,13 +3179,13 @@
       <c r="D35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="56">
+      <c r="E35" s="70"/>
+      <c r="F35" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="49"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>22</v>
@@ -2943,13 +3193,13 @@
       <c r="D36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="56">
+      <c r="E36" s="70"/>
+      <c r="F36" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="49"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
         <v>37</v>
@@ -2957,13 +3207,13 @@
       <c r="D37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="57">
+      <c r="E37" s="72"/>
+      <c r="F37" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="49"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="13" t="s">
         <v>29</v>
       </c>
@@ -2973,15 +3223,15 @@
       <c r="D38" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="49"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="11"/>
       <c r="C39" s="3" t="s">
         <v>39</v>
@@ -2989,13 +3239,13 @@
       <c r="D39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="56">
+      <c r="E39" s="75"/>
+      <c r="F39" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="49"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>3</v>
@@ -3006,12 +3256,12 @@
       <c r="E40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="49"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -3019,15 +3269,15 @@
       <c r="D41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="49"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10" t="s">
         <v>41</v>
@@ -3035,13 +3285,13 @@
       <c r="D42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="59">
+      <c r="E42" s="72"/>
+      <c r="F42" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3051,99 +3301,99 @@
       <c r="D43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="51"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="56">
+      <c r="E44" s="70"/>
+      <c r="F44" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="51"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="56">
+      <c r="E45" s="70"/>
+      <c r="F45" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="51"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="56">
+      <c r="E46" s="70"/>
+      <c r="F46" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="51"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="56">
+      <c r="E47" s="70"/>
+      <c r="F47" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="56">
+      <c r="E48" s="70"/>
+      <c r="F48" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="51"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="56">
+      <c r="E49" s="70"/>
+      <c r="F49" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="59">
+      <c r="E50" s="70"/>
+      <c r="F50" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="51"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
@@ -3151,97 +3401,97 @@
       <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="58">
+      <c r="E51" s="70"/>
+      <c r="F51" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="51"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="56">
+      <c r="E52" s="70"/>
+      <c r="F52" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="51"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="56">
+      <c r="E53" s="70"/>
+      <c r="F53" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="51"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="56">
+      <c r="E54" s="70"/>
+      <c r="F54" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="51"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="56">
+      <c r="E55" s="70"/>
+      <c r="F55" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="51"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="56">
+      <c r="E56" s="70"/>
+      <c r="F56" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="51"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="56">
+      <c r="E57" s="70"/>
+      <c r="F57" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="51"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="57">
+      <c r="E58" s="72"/>
+      <c r="F58" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="51"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="2" t="s">
         <v>64</v>
       </c>
@@ -3249,99 +3499,99 @@
       <c r="D59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A60" s="51"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="56">
+      <c r="E60" s="70"/>
+      <c r="F60" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A61" s="51"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="56">
+      <c r="E61" s="70"/>
+      <c r="F61" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A62" s="51"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="56">
+      <c r="E62" s="70"/>
+      <c r="F62" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A63" s="51"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="56">
+      <c r="E63" s="70"/>
+      <c r="F63" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A64" s="51"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="56">
+      <c r="E64" s="70"/>
+      <c r="F64" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A65" s="51"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="56">
+      <c r="E65" s="70"/>
+      <c r="F65" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A66" s="51"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="57">
+      <c r="E66" s="70"/>
+      <c r="F66" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A67" s="51"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3349,97 +3599,97 @@
       <c r="D67" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="58">
+      <c r="E67" s="70"/>
+      <c r="F67" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A68" s="51"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="56">
+      <c r="E68" s="70"/>
+      <c r="F68" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A69" s="51"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="56">
+      <c r="E69" s="70"/>
+      <c r="F69" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A70" s="51"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="56">
+      <c r="E70" s="70"/>
+      <c r="F70" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A71" s="51"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="56">
+      <c r="E71" s="70"/>
+      <c r="F71" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A72" s="51"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="56">
+      <c r="E72" s="70"/>
+      <c r="F72" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A73" s="51"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="56">
+      <c r="E73" s="70"/>
+      <c r="F73" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A74" s="51"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="57">
+      <c r="E74" s="70"/>
+      <c r="F74" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A75" s="51"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="9" t="s">
         <v>68</v>
       </c>
@@ -3447,97 +3697,97 @@
       <c r="D75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="58">
+      <c r="E75" s="70"/>
+      <c r="F75" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A76" s="51"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="56">
+      <c r="E76" s="70"/>
+      <c r="F76" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A77" s="51"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="56">
+      <c r="E77" s="70"/>
+      <c r="F77" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A78" s="51"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="56">
+      <c r="E78" s="70"/>
+      <c r="F78" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A79" s="51"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="56">
+      <c r="E79" s="70"/>
+      <c r="F79" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A80" s="51"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="56">
+      <c r="E80" s="70"/>
+      <c r="F80" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A81" s="51"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="56">
+      <c r="E81" s="70"/>
+      <c r="F81" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A82" s="51"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="57">
+      <c r="E82" s="72"/>
+      <c r="F82" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3547,99 +3797,99 @@
       <c r="D83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="25" t="s">
+      <c r="E83" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="58">
+      <c r="F83" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="51"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="56">
+      <c r="E84" s="70"/>
+      <c r="F84" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="51"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="56">
+      <c r="E85" s="70"/>
+      <c r="F85" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="51"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="56">
+      <c r="E86" s="70"/>
+      <c r="F86" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="51"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="56">
+      <c r="E87" s="70"/>
+      <c r="F87" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="51"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="56">
+      <c r="E88" s="70"/>
+      <c r="F88" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="51"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="56">
+      <c r="E89" s="70"/>
+      <c r="F89" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="51"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="59">
+      <c r="E90" s="70"/>
+      <c r="F90" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="51"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="2" t="s">
         <v>63</v>
       </c>
@@ -3647,97 +3897,97 @@
       <c r="D91" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="58">
+      <c r="E91" s="70"/>
+      <c r="F91" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="51"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="56">
+      <c r="E92" s="70"/>
+      <c r="F92" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="51"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="56">
+      <c r="E93" s="70"/>
+      <c r="F93" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="51"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="56">
+      <c r="E94" s="70"/>
+      <c r="F94" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="51"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="56">
+      <c r="E95" s="70"/>
+      <c r="F95" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="51"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="56">
+      <c r="E96" s="70"/>
+      <c r="F96" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="51"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="56">
+      <c r="E97" s="70"/>
+      <c r="F97" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="51"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="57">
+      <c r="E98" s="72"/>
+      <c r="F98" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="52"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="2" t="s">
         <v>64</v>
       </c>
@@ -3745,99 +3995,99 @@
       <c r="D99" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E99" s="25" t="s">
+      <c r="E99" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="F99" s="58">
+      <c r="F99" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="52"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="56">
+      <c r="E100" s="70"/>
+      <c r="F100" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="52"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="56">
+      <c r="E101" s="70"/>
+      <c r="F101" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="52"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="56">
+      <c r="E102" s="70"/>
+      <c r="F102" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A103" s="52"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="56">
+      <c r="E103" s="70"/>
+      <c r="F103" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="52"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="56">
+      <c r="E104" s="70"/>
+      <c r="F104" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="52"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="56">
+      <c r="E105" s="70"/>
+      <c r="F105" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="52"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="8"/>
       <c r="C106" s="10"/>
       <c r="D106" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E106" s="23"/>
-      <c r="F106" s="59">
+      <c r="E106" s="70"/>
+      <c r="F106" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="52"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="2" t="s">
         <v>67</v>
       </c>
@@ -3845,97 +4095,97 @@
       <c r="D107" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" s="58">
+      <c r="E107" s="70"/>
+      <c r="F107" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="52"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="56">
+      <c r="E108" s="70"/>
+      <c r="F108" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="52"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="56">
+      <c r="E109" s="70"/>
+      <c r="F109" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="52"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="56">
+      <c r="E110" s="70"/>
+      <c r="F110" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="52"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="56">
+      <c r="E111" s="70"/>
+      <c r="F111" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="52"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="56">
+      <c r="E112" s="70"/>
+      <c r="F112" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="52"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="56">
+      <c r="E113" s="70"/>
+      <c r="F113" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="52"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="59">
+      <c r="E114" s="70"/>
+      <c r="F114" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="52"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="9" t="s">
         <v>68</v>
       </c>
@@ -3943,92 +4193,92 @@
       <c r="D115" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="58">
+      <c r="E115" s="70"/>
+      <c r="F115" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="52"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="56">
+      <c r="E116" s="70"/>
+      <c r="F116" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="52"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="56">
+      <c r="E117" s="70"/>
+      <c r="F117" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="52"/>
+      <c r="A118" s="38"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="43" t="s">
+      <c r="D118" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="56">
+      <c r="E118" s="70"/>
+      <c r="F118" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="52"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="43" t="s">
+      <c r="D119" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="56">
+      <c r="E119" s="70"/>
+      <c r="F119" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="52"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="56">
+      <c r="E120" s="70"/>
+      <c r="F120" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="52"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="56">
+      <c r="E121" s="70"/>
+      <c r="F121" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="12.75" thickBot="1">
-      <c r="A122" s="53"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54" t="s">
+      <c r="A122" s="39"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E122" s="55"/>
-      <c r="F122" s="60">
+      <c r="E122" s="71"/>
+      <c r="F122" s="45">
         <v>4</v>
       </c>
     </row>
@@ -4050,172 +4300,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:5">
-      <c r="B2" s="83" t="s">
+    <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="60" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="72" t="s">
+      <c r="F2" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="73">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="74"/>
-      <c r="C4" s="33" t="s">
+      <c r="E3" s="77">
+        <v>4</v>
+      </c>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="55"/>
+      <c r="C4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="78">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="74"/>
-      <c r="C5" s="33" t="s">
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="55"/>
+      <c r="C5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="75"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="74"/>
-      <c r="C6" s="33" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="55"/>
+      <c r="C6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="75">
+      <c r="D6" s="26"/>
+      <c r="E6" s="78">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="74"/>
-      <c r="C7" s="33" t="s">
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="55"/>
+      <c r="C7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="75">
+      <c r="D7" s="26"/>
+      <c r="E7" s="78">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="76"/>
-      <c r="C8" s="35" t="s">
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="79">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="72" t="s">
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="74"/>
-      <c r="C10" s="33" t="s">
+      <c r="E9" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="86"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="55"/>
+      <c r="C10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="75">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="76"/>
-      <c r="C11" s="35" t="s">
+      <c r="E10" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="77"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="78" t="s">
+      <c r="E11" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="79">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="74"/>
-      <c r="C13" s="33" t="s">
+      <c r="E12" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="86"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="55"/>
+      <c r="C13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="75">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="E13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
